--- a/XLSX Prueba Beta 3/identificacion.xlsx
+++ b/XLSX Prueba Beta 3/identificacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcastilloaraujo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcastilloaraujo/tucertificado.co/XLSX Prueba Beta 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC882E5-483C-6D43-8653-36A5A8FDFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C26975-F745-7E48-B95E-798A00BD758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="24020" windowHeight="15760" xr2:uid="{D050B619-DE5B-3344-B5B8-1D673D1B626A}"/>
+    <workbookView xWindow="16360" yWindow="1000" windowWidth="18960" windowHeight="15760" xr2:uid="{D050B619-DE5B-3344-B5B8-1D673D1B626A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
